--- a/Ugly data.xlsx
+++ b/Ugly data.xlsx
@@ -21,6 +21,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+  <si>
+    <t>study area</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>deployment_date</t>
+  </si>
+  <si>
+    <t>takedown.date</t>
+  </si>
+  <si>
+    <t>Saint Joe</t>
+  </si>
+  <si>
+    <t>St. Joe</t>
+  </si>
+  <si>
+    <t>Sanit Joe</t>
+  </si>
+  <si>
+    <t>Beaverhead</t>
+  </si>
+  <si>
+    <t>SJ01</t>
+  </si>
+  <si>
+    <t>SJ02</t>
+  </si>
+  <si>
+    <t>BH01</t>
+  </si>
+  <si>
+    <t>BH02</t>
+  </si>
+  <si>
+    <t>SaintJoe</t>
+  </si>
+  <si>
+    <t>beaverhead</t>
+  </si>
+  <si>
+    <t>St Joe</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +390,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42359</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42359</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42355</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42355</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43089</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43089</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43089</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43089</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43088</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42355</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42841</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43088</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>